--- a/xlsx/孟菲斯国际机场_intext.xlsx
+++ b/xlsx/孟菲斯国际机场_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>孟菲斯国际机场</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国地质调查局</t>
   </si>
   <si>
-    <t>政策_政策_美國_孟菲斯国际机场</t>
+    <t>政策_政策_美国_孟菲斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%88%AA%E7%A9%BA%E8%BF%90%E8%BE%93%E5%8D%8F%E4%BC%9A%E6%9C%BA%E5%9C%BA%E4%BB%A3%E7%A0%81</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E8%88%AA%E7%B5%84%E7%B9%94%E6%A9%9F%E5%A0%B4%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際民航組織機場代碼</t>
+    <t>国际民航组织机场代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E7%B4%90%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>樞紐機場</t>
+    <t>枢纽机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%BF%AB%E9%80%92</t>
@@ -119,15 +119,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BF%AB%E9%81%9E</t>
   </si>
   <si>
-    <t>聯邦快遞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
@@ -185,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86/%E6%B3%A2%E6%81%A9%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>科隆/波恩機場</t>
+    <t>科隆/波恩机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%8B%9C%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -203,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%8C%E6%96%AF%E8%B7%AF%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>倫敦希斯路機場</t>
+    <t>伦敦希斯路机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%9A%AE%E7%BA%B3%E6%96%AF</t>
@@ -215,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>仁川國際機場</t>
+    <t>仁川国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E7%94%B0%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -233,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>香港國際機場</t>
+    <t>香港国际机场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_busiest_airports_in_the_United_States</t>
@@ -1209,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1235,10 +1226,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1264,10 +1255,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1293,10 +1284,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1322,10 +1313,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1351,10 +1342,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1380,10 +1371,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1409,10 +1400,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1438,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1467,10 +1458,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1496,10 +1487,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1525,10 +1516,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1554,10 +1545,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1583,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1612,10 +1603,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1641,10 +1632,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1670,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1699,10 +1690,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1728,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1757,10 +1748,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1786,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1815,10 +1806,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1844,10 +1835,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1873,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1902,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1931,10 +1922,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1960,10 +1951,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1989,10 +1980,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2018,10 +2009,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
